--- a/backend/sql/data/snapshots/snap0/stagesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/stagesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,76 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6שלב</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/stagesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/stagesTable.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>מספר שלב</t>
+          <t>שלב</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/backend/sql/data/snapshots/snap0/stagesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/stagesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,16 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>הרשמה</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/stagesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/stagesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,16 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>קורות חיים</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/stagesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/stagesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>מספר שלב</t>
+          <t>שלב</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,67 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5שלב</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6שלב</t>
+          <t>הרשמה</t>
         </is>
       </c>
     </row>
